--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -46,22 +46,246 @@
     <t>Top skills</t>
   </si>
   <si>
+    <t>ABHA BHANDARI</t>
+  </si>
+  <si>
+    <t>SAGAR BHATIA</t>
+  </si>
+  <si>
+    <t>CA MANOJ</t>
+  </si>
+  <si>
+    <t>Omkar Pathak</t>
+  </si>
+  <si>
+    <t>Mehul M Modi</t>
+  </si>
+  <si>
+    <t>Aalam Geer</t>
+  </si>
+  <si>
+    <t>ADITYA BHARTIA</t>
+  </si>
+  <si>
+    <t>Atul Sharma</t>
+  </si>
+  <si>
+    <t>Vikas Shil</t>
+  </si>
+  <si>
+    <t>Neeraj Goel</t>
+  </si>
+  <si>
+    <t>SARAVAGI DOB</t>
+  </si>
+  <si>
+    <t>Aasheesh Kumar</t>
+  </si>
+  <si>
     <t>Nitin Jain</t>
   </si>
   <si>
+    <t>abhabhandari32@gmail.com</t>
+  </si>
+  <si>
+    <t>sagarbhatia.iiitm@gmail.com</t>
+  </si>
+  <si>
+    <t>manojkjain65@gmail.com</t>
+  </si>
+  <si>
+    <t>omkarpathak27@gmail.com</t>
+  </si>
+  <si>
+    <t>mehul.modi@gmail.com</t>
+  </si>
+  <si>
+    <t>ranaaalamgeer92@gmail.com</t>
+  </si>
+  <si>
+    <t>adityabhartia@yahoo.com</t>
+  </si>
+  <si>
+    <t>atuls61@gmail.com</t>
+  </si>
+  <si>
+    <t>shil.vikas@gmail.com</t>
+  </si>
+  <si>
+    <t>negr321@gmail.com</t>
+  </si>
+  <si>
+    <t>tarun.saravagi08@gmail.com</t>
+  </si>
+  <si>
+    <t>aasheeshsingh03@gmail.com</t>
+  </si>
+  <si>
     <t>nitinjain2208@gmail.com</t>
   </si>
   <si>
+    <t>9811364363</t>
+  </si>
+  <si>
+    <t>9643112048</t>
+  </si>
+  <si>
+    <t>9303270882</t>
+  </si>
+  <si>
+    <t>8087996634</t>
+  </si>
+  <si>
+    <t>9821081319</t>
+  </si>
+  <si>
+    <t>9197166831</t>
+  </si>
+  <si>
+    <t>9820929220</t>
+  </si>
+  <si>
+    <t>9223339060</t>
+  </si>
+  <si>
+    <t>9650664952</t>
+  </si>
+  <si>
+    <t>1244227884</t>
+  </si>
+  <si>
+    <t>9582250204</t>
+  </si>
+  <si>
+    <t>9654062283</t>
+  </si>
+  <si>
     <t>7206261673</t>
   </si>
   <si>
+    <t>Meerut in</t>
+  </si>
+  <si>
+    <t>National Institute of 
+Technology</t>
+  </si>
+  <si>
+    <t>KRISHNA INSTITUTE OF ENGINEERING &amp; TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Graduate Diploma in Jewellery Design,Bachelor of Commerce (B.COM)</t>
+  </si>
+  <si>
+    <t>B.E. IN COMPUTER ENGINEERING</t>
+  </si>
+  <si>
+    <t>B.Tech (I.T.)</t>
+  </si>
+  <si>
+    <t>B.Tech in Information Technology from Indian Institute of Information Technology,</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>B.Tech in COMPUTER 
+SCIENCE ENGINEERING</t>
+  </si>
+  <si>
+    <t>TECHNICAL CONTENT WRITER,Schlumberger</t>
+  </si>
+  <si>
+    <t>Senior Director</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer,Software Engineer,Senior Product Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer II @ Adobe Systems,Software Engineer</t>
+  </si>
+  <si>
     <t>Team Leader</t>
   </si>
   <si>
+    <t>['Gurgaon, IN', 'Nov 2017 – Jul', '2018', 'Freelance HR Consultant / Recruiter', 'Responsibilities', '\uf0a7', 'Searching   for   qualified   candidates   from   web-based   job   portal,', 'references, networking etc.', 'Screening and short-listing profiles based on the competencies required', 'for the role.', 'Scheduling Interviews (Tele/Personal) coordinating with the Client and', 'the Candidates', '\uf0a7', '\uf0a7', '\uf0a7 Gathering post interview feedback from the Client and passing on to the', '\uf0a7 Negotiating   the   salary   and   other   benefits   with   the   candidates   /', 'Candidates', 'employers', '\uf0a7 Maintaining Database of candidates.', 'GoFro', 'GoFro is a leading online travel marketplace in India offering complete,', 'end-to-end travel solutions to consumers', 'India', 'Jan 2017 – Nov', '2017', 'Travel Advisor', 'Responsibilities', '\uf0a7 Gathering travel / holiday requirements from prospects for destinations', 'such as Bali, Singapore, Malaysia and Thailand.', 'Preparing customized, single or multi country itineraries based on the', 'travellers’   requirements,   including   flights,   hotels,   sightseeing,', 'transfers, visa, specific meal requirements, etc.', 'Suggesting   things   to   do,   activities   /   sightseeing   in   the   chosen', 'destinations to prospective customers.', '\uf0a7', '\uf0a7', '\uf0a7 Working closely with the operations team to create customised holiday', 'packages for prospective customers based on their individual needs /', 'requirements', '\uf0a7 Negotiating itinerary costs and other inclusions with customers', '\uf0a7 Working with finance and operations teams to finalise and book the', 'packages', '2 | P a g e', 'Forever Jewelry', 'Jewelry manufacturer', 'Merchandiser', 'Responsibilities', '\uf0a7 Gathering   feedback   on   different   products   from   the', 'marketing team and passing on to the in-house design team', 'to facilitate rollout of new collections and products in line', 'with the market needs and trends.', 'Stock taking and maintenance.', 'Sharing ideas  and  feedback  with  the  design  team  in  coming  up  with', 'trendy new designs for the company’s new collection.', '\uf0a7', '\uf0a7', 'New Delhi, IN', '2007 - 2009']</t>
+  </si>
+  <si>
+    <t>['for multi-national companies. I can create effective product at local and global levels. My  strengths', 'are  building  application  interface  and  web  scrapping  scripts  using  OO  designing,  UML', 'modeling  and  using  dynamic  data  structures  which  enable  me  to  permanently  streamline', 'infrastructure and applications.']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['July 2018 - Present', 'Pune, Maharashtra, India', 'Pune, Maharashtra, India', 'Schlumberger', 'DATA ENGINEER', '• Responsible for implementing and managing an end-to-end CI/CD Pipeline with custom validations for Informatica', 'migrations which brought migration time to 1.5 hours from 9 hours without any manual intervention', '• Enhancing, auditing and maintaining custom data ingestion framework that ingest around 1TB of data each day to over', '70 business units', '• Working with L3 developer team to ensure the discussed Scrum PBI’s are delivered on time for data ingestions', '• Planning and Executing QA and Production Release Cycle activities', 'Truso', 'FULL STACK DEVELOPER INTERN', '• Created RESTful apis', '• Tried my hands on Angular 5/6', '• Was responsible for Django backend development', 'Propeluss', 'DATA ENGINEERING INTERN', '• Wrote various automation scripts to scrape data from various websites.', '• Applied Natural Language Processing to articles scraped from the internet to extract different entities in these articles', 'using entity extraction algorithms and applying Machine Learning to classify these articles.', '• Also applied KNN with LSA for extracting relevant tags for various startups based on their works.', 'GeeksForGeeks', 'TECHNICAL CONTENT WRITER', '• Published 4 articles for the topics such as Data Structures and Algorithms and Python', 'Softtestlab Technologies', 'WEB DEVELOPER INTERN', '• Was responsible for creating an internal project for the company using PHP and Laravel for testing purposes', '• Worked on a live project for creating closure reports using PHP and Excel', 'Pune, Maharashtra, India', 'July 2017 - September 2017', 'Pune, Maharashtra, India', 'June 2017 - July 2017', 'Pune, Maharashtra, India', 'October 2017 - January 2018', 'June 2018 - July 2018']</t>
+  </si>
+  <si>
+    <t>['Joined   C   C   Chokshi   &amp;   Co.   –   Chartered   Accountants,   Mumbai   (   part   of     Deloitte   Touche', 'Tohmatsu)   in   January   1995   and   worked   through   ranks   to   become   partner   in   April   2009.', 'Presently working as Senior Director (Partner) M&amp;A Tax and Regulatory with Deloitte India', 'CURRENT CTC: Rs. 1 crore', 'JOB   PROFILE   AND   RESPONSIBILITY:     My   responsibility   includes   leading   a   team   of', 'professionals who is involved in providing innovative solutions to clients and other functions of', 'Deloitte   across   India   from   corporate   laws,   Foreign   Direct   investment,   Competition   Act', 'perspectives.', 'Expertise in identifying key issues and negotiating and closing JV transactions with investors,', 'merchant bankers and lawyers in and outside India.', 'Structuring   and   advisory   on   merger,   de-merger,   hive   offs,   separation   etc.   of   businesses,', 'companies including complete implementation support.', 'Structuring advisory on India entry strategy including obtaining approvals from Government,', 'entity formation, structuring advisory on overseas investments by Indian clients, advisory on', 'Securities Laws, advisory services on laws relating to Companies Act, Non-Banking Finance', 'Company, Insurance Companies, Banking, Securities laws including Listing Agreement, Foreign', 'Exchange Management Laws, Competition Act, Laws on Trust, Stamp laws, Electricity laws etc.', 'Drafting and finalizing schemes of re-organization, de-merger, merger, hive offs, joint venture,', 'investment management agreement, term sheets, MOU, Partnership, trust deed of private and', 'public trusts etc.', 'Working knowledge of: Laws on inheritance, Valuation of shares and businesses', 'Major Achievements include: Recognized in Deloitte India as a structuring expert and all India', 'head resource on Corporate laws for M&amp;A. Worked on most prestigious assignments. Have', 'consistently dealt with the key decision makers at the client organization at the highest level.', 'Illustrative   list   include   Reliance   Industries   Limited,   Torrent   Group,   Lupin,   Shapporji   Pallonji', 'Group,   Mafatlal   Industries,   Amalgamation   Group,   Apollo   DKV   Health   Insurance,   Sundaram', 'Clayton, Punjab Chemicals, Excel Industries, IL&amp;FS etc.']</t>
+  </si>
+  <si>
+    <t>['June 2007 – Till date', 'Noble Group/Clear Capital, Mumbai', 'Equity research analyst  at Noble Group, a UK-based investment bank specializing in small and mid-cap', 'equities. Noble’s clients include some of the UK’s top institutional investors such as Scottish Widows, Fidelity,', 'Gartmore, Aberforth, and L&amp;G.', '\uf0a7 Held   joint   responsibility   with   the   team   leader   for   analysing   the   UK   Support   Services   sector,   which', 'encompasses a wide array of business models like equipment rental, accident management, social housing', 'and engineering consultancy.', 'Involved in all stages of equity research, starting with company meetings and developing sophisticated', 'earning models and ending with writing research notes and servicing clients through roadshows, meetings,', 'and ad-hoc projects.', '\uf0a7 Prepared  thematic industry notes  on the UK rental industry and the engineering consultants market,', '\uf0a7', 'highlighting key growth drivers, and identifying top sector picks.', '\uf0a7 Authored five initiation reports, with name duly accorded on their front page.', '\uf0a7', 'Involved with  forensic examination  of financial statements of accident management and vehicle rental', 'companies, with particular emphasis on their operating and financial leverage.', 'Irevna Research Services (subsidiary of S&amp;P), Chennai', 'Oct 2005 – May 2007', 'Offshore  equity   research   associate  responsible   for   fundamental   research   of   European   Household   and', 'Personal Care sector for a bulge bracket investment-banking firm', '\uf0a7 Built  financial   models  for   companies.   Responsible   for   populating   historical   financial   data,   making', 'accounting adjustments, ratio and trend analysis, and preparing forecasts of revenues and profitability.', '\uf0a7 Prepared Industry presentations for the companies under coverage universe.', '\uf0a7 Authored First Call notes for companies under coverage post quarterly earnings and key catalyst events.', 'APPRENTICE', 'Lochan &amp; Co, New Delhi', 'P. K, Narula &amp; Co, New Delhi', '\uf0a7 Conducted internal and statutory audits in different sectors.', '\uf0a7 Finalized accounts, prepared balance sheets, and filed returns of income.']</t>
+  </si>
+  <si>
+    <t>['processes for accuracy and completeness as well as putting in place the best in class', 'practices.', 'July  2008  to  June  2013  worked  as  the  Chief  Financial  Officer  with  Tata', 'Communications  Payment  Solutions  Limited.  This  is  a  100%  subsidiary  of  Tata', 'Communications.  The  company  is  a  leader  in  providing  Managed  Services  to  the', 'Banking industry for products like ATM/POS/Core Banking/Switching. Joined the', 'company at the start-up stage and it had revenues of Rs. 500 crores at the time of', 'my exit.', '\uf0b7', 'o  Key  member  of  executive  management  team  and  reported  to  the  Board;  was', 'primarily  responsible  for  performing  all  tasks  necessary  to  achieve  the', "organization's  mission  while  managing", 'the Financial Risks, Financial', 'Planning, Strategy, Record-keeping and Financial Reporting.', 'o  Responsibility  also  included  preparation  and  analysis  of  Business  Plans  and', 'Projected  Financial  Statements,  participation  in  developing  New  Businesses,', 'Break  Even  Analysis  and  Pricing  for  new  businesses,  Cost  Benefit  analysis,', 'Capex  and  Opex  Budgeting,  various  MIS,  Business  Insurance  plans  and', 'maintenance  of  Inventory  of  all  fixed  assets.  Treasury  operations  including', 'projecting fund requirement and ensure optimum utilization of funds. Financial', 'Modeling,  Project  feasibility,  funding  proposal  and  dealing  with  bankers  &amp;', 'consultants.', 'o  Ensuring  fiscal/statutory  compliance  -  direct  and  indirect  taxation.  Procure', 'relevant registrations i.e. PF, Labour laws, IEC code, VAT &amp; Service Tax, etc.', 'o  Strategic  inputs  for  Business  in  relation  to  various  critical  decisions  and', 'participate  in  negotiation  with  customers  and  vendors.  Develop,  drive  and', 'maintain  systems  of  Internal  Controls  to  safeguard  financial  assets  of  the', 'organization, periodical audits, etc.', 'o  Overseeing', 'the  Supply  Chain  Management  function  covering  Strategic', 'Sourcing, Supplier Evaluation and Selection, Price Benchmarking, Negotiation,', 'Order Management, continuous cost reduction and Inventory Management.', '\uf0b7  May  2006  to  June  2008  worked  as  Financial  Controller  and  responsible  for', '\uf0b7', '\uf0b7', '\uf0b7', 'the overall Financial Control and Reporting of Tata Teleservices Limited', 'June  2002  to  April  2006  –  Head  of  Finance  -  Tata  Teleservices  Limited  –', 'Central Hub comprising of Gujarat, MP and Chhattisgarh', 'January  2001  to  May  2002  –  General  Manager  -  Finance  in  Tata  Internet', 'Services Limited', 'February  1998  to  January  2001  –  Senior  Manager  –  Finance,  Tata', 'Teleservices', 'Prior to joining the Tata Group', 'o  Adroit  Financial  Services  as  Director  (Finance  and  Accounts)  April  1994  to', 'January 1998', 'o  Multi-Tech Computers as Manager - Finance March 1988 to April 1994', 'o  Mehta,  Grover  &amp;  Sharma,  Chartered  Accountants;  January  1985  to  February', '1988']</t>
+  </si>
+  <si>
+    <t>['OneAssist, Gurgaon                                                                       Apr’18 to Present', 'Senior Product Engineer', 'Roles and responsibilities', '● Back end designing and development of project.', '● Analysis of performance and the nature and reason of bugs appearing', 'frequently in application. Also, to make sure if the business requirement', 'should align with technical implementation', '● Creating/maintaining documents relevant to enhancements/development of', 'the application.', '● Supporting and guiding team members.', 'Technologies: \u200bPython, Django, Django ORM, SQL, Redis, Celery, AWS', 'Goibibo (ibibo Group), Gurgaon                                                        Jul’15 to Apr’18', 'Senior Software Engineer', 'Project: Goibibo.com', 'Description: \u200bGoibibo.com is an online travel portal offering a holistic range of travel', 'solutions which include domestic &amp; international flights, hotels &amp; bus booking,', 'holidays packages and car rental.', 'Technologies: \u200bPython, Django, Django ORM, SQL, Redis, Celery', 'Jaarwis Technology Group, Gurgaon,                                               May’14 to Jun’15', 'Software Engineer', 'Roles and responsibilities', '● Back end designing and development of project.', '● Analysis of performance and the nature and reason of bugs appearing', 'frequently in application. Also, to make sure if the business requirement', 'should align with technical implementation', '● Supporting and guiding team members.', 'Project: Callfixie.com', 'Description: \u200bCallfixie, an advanced platform where a customer can post their job', 'about\u200b \u200bhome improvements or emergency repair job. The portal then sends this job', 'lead out to the entire relevant tradesman in the corresponding area.', 'Technologies: \u200bPython, Django, Django Rest Framework, Angular.js', 'Parivartana Consulting, Bangalore                                                    Jul’13 to Apr’14', 'Software Engineer', 'Roles and responsibilities', '● Front end and the back end designing and development of project.', '● Analysis of performance and the nature and reason of bugs appearing', 'frequently in application.', 'Project: Careercarve.com', 'Description: \u200bCareercarve, is  a platform  that  understands  the  questions,  doubts', 'and  confusions  in  your  mind  and  delivers  to  you  the  most  relevant', 'information  to  provide answers, so that you can make an informed decision', 'Technologies: \u200bPython, Django, Django Rest Framework, Ember.js', 'Gradifex Technologies, Lucknow                                                      Jul’12 to Jun’13', 'Software Engineer', '● Worked on web Development using J2EE Technologies.', 'Declaration: \u200bI hereby declare that the above-mentioned information is correct up to the', 'best of\u200b \u200bmy knowledge and I bear the responsibility for the correctness of these particulars.', '\u200bVikas Shil']</t>
+  </si>
+  <si>
+    <t>['July 2012 ~ present', 'MNAUM International Private Limited, Delhi. (Own', 'Venture)', 'Jan 2011 ~June 2012', 'Oct 1998 ~ Jan 2012', 'Working as Executive Director having business verticals in', 'trading, consultancy and management support.', 'Eaton Group, A US MNC (Industrial/Electrical products)', 'Worked   as   “Country   Controller-India”   as   Group   CFO', 'while   handling   Eleven   Entities   having   5   manufacturing', 'plants, Trading business, Export of Services revenue, BPO,', 'IT Services, International Shares service center and more', 'than 3000 manpower.', 'LG Group in India (USD $120 Billion Conglomerate', 'having World Head Quarter in South Korea)', 'Mar 2004 ~ Jan 2011 Worked as “CFO &amp; Head HR” for LG Life Sciences India', 'Private Limited, a Pharmaceuticals company. The company', 'is   into   trading   business   having   products   under   bio-', 'technology and Export of services.', 'Oct 1998 ~ Feb 2004 Worked   as   “Financial   Controller”   with   LG   Electronics', 'India Private Limited having consumer durables Division', 'and Telecommunication Division. The company is having 2', 'manufacturing   plants,   Trading   business,   revenue   from', 'Services and more than 6000 manpower.', 'Hi-Tech Detergents Limited, a manufacturing plant', 'Apr 1996 ~ Oct 1998', 'for HLL.', 'Worked as Financial Controller with the company, a', 'manufacturing', 'FMCG products like Wheel and Vim Bar.', 'M. Mittal &amp; Co. Chartered Accountants Firm', 'Worked   as   Senior   Consultant   while   Auditing   of   private', 'companies,', 'public   limited,   Government   companies,', 'Income   tax   matters,   arranging   the   credit   facilities   for', 'various type of clients, ROC work etc.', 'Institute of Chartered Accountants of India, Delhi', 'Institute of Cost &amp; Works Accountants of India, Delhi', 'Holding 37th Rank in All India', 'IMT,   Ghaziabad  (Regular   three   years   part-time', 'Sep.91 to Mar 96', 'Certification', '1996    CA', '1995    ICWA', '1997    MBA-Finance', 'course)', 'Academic Credentials', '1991   B.Com.', 'Securing 69.2% marks (86.3% in IIIrd Year) from MMH', 'College, Choudhary Charan Singh University.']</t>
+  </si>
+  <si>
+    <t>['Involved in leading team, code development of integration of various applications and in low level design', 'Technical Exposure:', 'Technologies', 'Languages', 'Software', 'Repository', 'Other Tools', 'OS', 'Professional Experience:', 'NLP , Machine Learning , SOA', 'Python, ESQL, SQL, Java', 'PyCharm  , IIB v10 , WebSphere Message Broker v6&amp; v7 , WebSphere MQ v7 ,Anaconda', 'GIT &amp; SVN – Version Control, Clear Case', 'Postman , Eclipse ,Spyder ,SOAP UI, SQL Developer, rfhutil, putty etc.', 'Mac , Windows , UNIX', 'Tata Consultancy Services (Jan 2016 till Date)                                                                   Location: Noida', '1-  Project: ARD &amp; Concierge : Apple', 'Role:  Data Analyst/ Technical Lead/ Python Developer', 'Duration: May 2017 to present', '\uf0b7  Apple Retail Dashboard showcases the sales ,operation and other store information . Our team to bring agility,', 'user friendliness to the dashboard by using features like Autosuggest and NLP.', '\uf0b7  NLP takes the key role for selecting filters in dashboard from user query and suggestions from autosuggest app', '(using Lucene). Used Natural Language Processing using ner-crf/ Spacy , Entity extraction (RASA NLU)', '\uf0b7  POC of autosuggestion completed &amp; accepted by client . Implemented using unsupervised machine learning', 'algorithm by taking NLP user logs in account .', 'Responsibilities and activities:', 'Leading a python development team', 'K Means', 'Duckling', 'Decision tree', 'Ensemble/Boosting/Bagging', 'Overfitting &amp; Underfitting', '\uf0b7', '\uf0b7  Working knowledge &amp; in depth understanding of below algorithms &amp; Concepts  in the project', 'RASA -spaCy', 'Linear regression', 'ner -crf', 'Image processing', 'Logistic', '\uf0b7  Understanding Business requirements ,check its feasibility and prepare high level and low level design', '\uf0b7  Prepare pattern through Chatito and used generated statements for training the model', '\uf0b7  DevOps culture is followed . Used GIT and Apple PIE Cloud for deployment', '\uf0b7  Developed  baseLineVerification application using Python for regression testing', '\uf0b7  Design and development of scripts performing bulk hit, Cassandra DB queries and maintaining metadata', 'IIB &amp; MQ', 'Regularization', 'KNN', 'Bias and variance', 'Multiple Linear Regression', 'Random Forest', 'PCA', 'Chatbot', 'Naive Bayes', 'SVM', '2- Project: United Biscuits (UK based)', 'Role: Senior Analyst', 'Duration: Sep 2016 to May 2017', 'Load and transform large sets of structured and semi structured data.', 'Support code/design analysis, strategy development and project planning.', '\uf0b7', '\uf0b7  Developed python scripts for Test suite Automation &amp; Bulk hit of messages', '\uf0b7', '\uf0b7  Developed Message Flow using various nodes like MQ Nodes, File nodes, Compute, RCD etc.', '\uf0b7  Used Message Model , ESQL , Pub/Sub logic &amp; different types of Queues', '\uf0b7  Made error handler sub flow for the project.', '3- Project: Thames Water(UK based)', 'Role: Developer', 'Duration: Jan 2016 to Aug 2016', '\uf0b7  Developing Message Flow  &amp; error handler sub flow as per business need .', '\uf0b7  Used Message Model , ESQL and did Unit Testing of each module developed', '\uf0b7  Collaborating with Business Analysts, Project Leads and IT team to resolve issues and providing  solutions', '\uf0b7  Conducted training sessions and workshops on SOA', 'Dell International Services (Dec 2014 to Jan 2016)                                                      Location: Noida', '1-  Project: Dignity Health (US Based)', 'Role:  : Senior Analyst', 'Duration:  Dec 2014 to Jan 2016', '\uf0b7  Extensively involved in Collection of Customer Scenarios &amp; proposing solution using SOA', '\uf0b7  Developed Message Flow , User defined nodes based on customer problems', '\uf0b7  Developed Java module for comparing two HL7 messages', '\uf0b7  Analyze and route issues into the proper channels and update and close tickets in a timely manner.', 'IBM India Pvt Ltd. (Aug 2012 to Dec 2014)                                                                 Location: Gurgaon', '1- Project: Blue Harmony (US Based)', 'Role:  :   System Engineer', 'Duration: Aug 2012 to Dec 2014', '\uf0b7  Analyzing the business requirements and preparing Technical design document', '\uf0b7  Developed Message Flows, Message Sets, ESQL code and debugged them successfully', '\uf0b7  Developed Adapters , Business Object ,XSL and Web Services', '\uf0b7  Worked on various IBM tools like Rational ClearCase, ClearQuest, SOLMAN and SDMS sales services.', '\uf0b7  Provide support for the code developed and coordinated with the Onsite team and the clients', 'Educational Qualification:', '1.', '2.', 'M-Tech', 'B-Tech', 'Achievements:', 'National Institute of', 'Technology, Rourkela', 'ABES Engineering College,', 'Ghaziabad , UPTU', 'Information', 'Security', 'Computer', 'Science', '8.02', '65.90', '2012', '2010', 'Received Monthly &amp; Quarterly spotlight award in 2018', 'Runner up in intra NIT basketball &amp; in inter college chess competition held at I.E.T. LUCKNOW']</t>
+  </si>
+  <si>
+    <t>['Site (Mumbai).', '98.3 percentile on national level in', 'AMCAT employability test (Logical', 'Ability)']</t>
+  </si>
+  <si>
     <t>['Newgen Software Technologies Limited (Nov. 2014 to Present)', 'JAVA/J2EE', 'Spring, Hibernate', 'Team Leader', 'Application / Web Development.', 'Core Java, JDBC, JSP, Servlets, Spring, Hibernate, HTML,', 'CSS, Java Script, AJAX, Web-Services, JQuery, Multi-threading.', 'SQL Server, Oracle.', 'Application Server', 'JBOSS 5, JBOSS 6 EAP, Web-Logic, Apache Tomcat.', 'Netbeans, Eclipse, SQL Developer, HeidiSQL, SOAP UI,', 'Tortoise SVN.', 'Profile Precise', 'technologies.']</t>
   </si>
   <si>
-    <t>Newgen Software Technologies Limited,Oracle</t>
+    <t>Mynd solution Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Axis Bank</t>
+  </si>
+  <si>
+    <t>Oracle,Newgen Software Technologies Limited</t>
+  </si>
+  <si>
+    <t>Merchandising,Sourcing,Operations,Scheduling,Recruitment</t>
+  </si>
+  <si>
+    <t>Opencv,Windows,Database,Linux,Python</t>
+  </si>
+  <si>
+    <t>Tax,Accounting,Compliance,Audit,Finance</t>
+  </si>
+  <si>
+    <t>Algorithms,Django,Opencv,Php,Python</t>
+  </si>
+  <si>
+    <t>C,Hive,Partnership,Regulatory,Banking</t>
+  </si>
+  <si>
+    <t>Linux,Java,Python,Mysql,Php</t>
+  </si>
+  <si>
+    <t>Accounting,Banking,Presentations,Forecasts,Research</t>
+  </si>
+  <si>
+    <t>Mis,Operations,Negotiation,Reporting,Finance</t>
+  </si>
+  <si>
+    <t>Celery,Java,Python,Sql,Django</t>
+  </si>
+  <si>
+    <t>Budgeting,Finance,Litigation,Tax,Legal</t>
+  </si>
+  <si>
+    <t>Testing,Windows,Sql,Machine,Python</t>
+  </si>
+  <si>
+    <t>Testing,Threading,Banking,Database,Java</t>
   </si>
   <si>
     <t>Css,Html,Sql,Java,Jsp</t>
@@ -425,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,25 +700,343 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5">
+        <v>2.58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>1.58</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9">
+        <v>6.08</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <v>37.33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>11.25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
